--- a/TestCase_VLXD.xlsx
+++ b/TestCase_VLXD.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="178">
   <si>
     <t>1.    Phạm vi test</t>
   </si>
@@ -143,12 +143,344 @@
 2. Bấm nút  </t>
   </si>
   <si>
+    <t>Xem thông tin khách hàng</t>
+  </si>
+  <si>
     <t>Đăng nhập hệ thống</t>
   </si>
   <si>
+    <t>1. Nhấn vào hàng hoặc cột bất kỳ của bảng khách hàng.
+2. Xem thông tin được hiển thị phía trên theo từng trường dữ liệu</t>
+  </si>
+  <si>
+    <t>- Hiển thị đúng thông tin của hàng/cột dữ liệu được chọn lên trên textbox phía trên.</t>
+  </si>
+  <si>
+    <t>1. Nhập đầy đủ thông tin khách hàng: Họ, tên, địa chỉ, số điện thoại, giới tính
+2. Bấm nút "Thêm".</t>
+  </si>
+  <si>
+    <t>1. Để trống tất cả các hộp: Họ, tên, địa chỉ, số điện thoại.
+2. Bấm nút "Thêm".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hiển thị thông báo "Bạn phải nhập thông tin cho khách hàng cần thêm".
+- Không thể thêm mới khách hàng. </t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Khách hàng được thêm mới thành công" và hiển thị trong danh sách khách hàng.
+- Mã khách hàng tự động sinh ra trong CSDL.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Hiển thị thông báo "Bạn phải nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đầy đủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> thông tin cho khách hàng cần thêm".
+- Không thể thêm mới khách hàng. </t>
+    </r>
+  </si>
+  <si>
+    <t>1. Nhập dữ liệu và để trống một trong số các hộp: Họ, tên, địa chỉ, số điện thoại.
+2. Bấm nút "Thêm".</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào hàng hoặc cột bất kỳ của bảng khách hàng.
+2. Sửa lại thông tin trên các textbox thông tin
+3. Bấm nút "Sửa"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thông tin mã khách hàng Disable.
+- Hiển thị thông báo "Khách hàng được sửa thành công" và hiển thị lại thông tin được sửa trong danh sách khách hàng.
+</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào hàng hoặc cột bất kỳ của bảng khách hàng.
+2. Xóa hết tất cả thông tin được hiển thị trên textbox
+3. Bấm nút "Sửa"</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Không được sửa nếu như thiếu thông tin khách hàng".
+- Sửa thông tin khách hàng thất bại.</t>
+  </si>
+  <si>
+    <t>1. Tick chọn "Theo tên".
+2. Điền vào ô tìm kiếm: Dung
+3. Bấm nút "Tìm".</t>
+  </si>
+  <si>
+    <t>1. Tick chọn "Theo tên".
+2. Điền vào ô tìm kiếm: hong
+3. Bấm nút "Tìm".</t>
+  </si>
+  <si>
+    <t>- Hiển thị một hoặc một danh sách các hàng dữ liệu có liên quan đến tên được nhập.</t>
+  </si>
+  <si>
+    <t>- Hiển thị hàng dữ liệu khách hàng được tìm kiếm theo tên được nhập.</t>
+  </si>
+  <si>
+    <t>1. Tick chọn "Theo tên".
+2. Điền vào ô tìm kiếm: Yến
+3. Bấm nút "Tìm".</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Không có khách hàng theo tên được tìm kiếm"
+- Tìm kiếm thất bại.</t>
+  </si>
+  <si>
+    <t>- Hiển thị hàng dữ liệu khách hàng được tìm kiếm theo mã khách hàng được nhập.</t>
+  </si>
+  <si>
+    <t>1. Tick chọn "Theo mã".
+2. Điền vào ô tìm kiếm: 3
+3. Bấm nút "Tìm".</t>
+  </si>
+  <si>
+    <t>1. Tick chọn "Theo mã".
+2. Điền vào ô tìm kiếm: 100
+3. Bấm nút "Tìm".</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Không có khách hàng theo mã được tìm kiếm"
+- Tìm kiếm thất bại.</t>
+  </si>
+  <si>
+    <t>1. Tick chọn "Theo tên".
+2. Bấm nút "Tìm".</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Bạn phải nhập tên khách hàng cần tìm kiếm"
+- Tìm kiếm thất bại.</t>
+  </si>
+  <si>
+    <t>1. Tick chọn "Theo mã".
+2. Bấm nút "Tìm".</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Bạn phải nhập mã khách hàng cần tìm kiếm"
+- Tìm kiếm thất bại.</t>
+  </si>
+  <si>
     <t>Passed</t>
   </si>
   <si>
+    <t>Đặt hàng</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Hệ thống chưa xử lý được</t>
+  </si>
+  <si>
+    <t>Chọn ngày giao hàng trước ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>1. Chọn ngày giao hàng trước ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Phải chọn ngày giao hàng sau ngày đặt hàng"
+- Không thể đặt hàng</t>
+  </si>
+  <si>
+    <t>Chọn ngày giao hàng cùng ngày với ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>1. Chọn ngày giao hàng cùng ngày với ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>Chọn ngày giao hàng sau ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>1. Chọn ngày giao hàng sau ngày đặt hàng
+2. Bấm nút "Thêm"
+2. Xác nhận Tạo hóa đơn mới</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Bạn muốn tạo hóa đơn mới không?"
+- Thêm thông tin đơn hàng thành công</t>
+  </si>
+  <si>
+    <t>1. Chọn đơn hàng bất kỳ trong danh sách đơn hàng.
+2. Chọn lại thông tin nhân viên/khách hàng/sản phẩm.
+3. Bấm nút "Sửa"</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Bạn có muốn sửa hóa đơn được chọn không".
+- Hóa đơn được sửa thành công</t>
+  </si>
+  <si>
+    <t>1. Chọn đơn hàng bất kỳ trong danh sách đơn hàng.
+2. Xóa trống dữ liệu ô Số lượng hoặc Giảm giá.
+3. Bấm nút "Sửa"</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Không thể sửa - dữ liệu không hợp lệ"
+- Sửa dữ liệu thất bại</t>
+  </si>
+  <si>
+    <t>- Sản phẩm cần tìm hiển thị trong danh sách phía dưới
+- Tìm kiếm thông tin sản phẩm được nhập thành công</t>
+  </si>
+  <si>
+    <t>- Sản phẩm cần tìm không được hiển thị.
+- Tìm kiếm thất bại</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo tên"
+3. Nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tên sản phẩm 
+4. Bấm vào button "Tìm kiếm"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo tên"
+3. Nhập đúng tên sản phẩm 
+4. Bấm vào button "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo mã"
+3. Nhập số 2
+4. Bấm vào button "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>- Sản phẩm cần tìm là Gạch Phước Thành được hiển thị
+- Tìm kiếm thành công</t>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo mã"
+3. Nhập số 1000
+4. Bấm vào button "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo mã"
+3. Nhập chữ abc
+4. Bấm vào button "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo mã khách hàng"
+3. Nhập chữ abc
+4. Bấm vào button "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo mã khách hàng"
+3. Nhập 8
+4. Bấm vào button "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>- Đơn hàng có mã 4008 được hiển thị
+- Tìm kiếm thành công</t>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo mã đơn hàng"
+3. Nhập 4008
+4. Bấm vào button "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>- Đơn hàng có mã 4008 và mã Khách hàng là 8 được hiển thị
+- Tìm kiếm thành công</t>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo mã đơn hàng"
+3. Nhập 10000
+4. Bấm vào button "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo mã đơn hàng"
+3. Nhập abc
+4. Bấm vào button "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>1. Click vào nút "Quản lý"
+2. Điền tên đăng nhập: abc
+3. Điền mật khẩu: 123456
+4. Bấm nút "Đăng nhập".</t>
+  </si>
+  <si>
+    <t>- Hiển thị hộp thoại thông báo "Bạn đã nhập sai tên đăng nhập và mật khẩu - Yêu cầu đăng nhập lại".
+- Không thể vào hệ thống quản lý, quay lại Form "Đăng nhập" vào quản lý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. Click vào nút "Quản lý"
+2. Điền tên đăng nhập: Huy
+3. Điền mật khẩu: 123
+4. Bấm nút "Đăng nhập".</t>
+  </si>
+  <si>
+    <t>- Hiển thị hộp thoại thông báo "Tài khoản này không có quyền vào quản lý - Yêu cầu đăng nhập lại".
+- Không thể vào hệ thống quản lý, quay lại Form "Đăng nhập" vào quản lý.</t>
+  </si>
+  <si>
+    <t>1. Click vào nút "Quản lý"
+2. Điền tên đăng nhập: Long
+3. Điền mật khẩu: 123
+4. Bấm nút "Đăng nhập".</t>
+  </si>
+  <si>
+    <t>- Đăng nhập thành công vào form quản lý hệ thống</t>
+  </si>
+  <si>
+    <t>1. Chọn đơn hàng bất kỳ trong danh sách đơn hàng.
+2. Chọn lại ngày giao hàng trước ngày đặt hàng
+3. Bấm nút "Sửa"</t>
+  </si>
+  <si>
+    <t>- Hệ thống báo lỗi không thể sửa do thông tin sửa không đúng
+-Sửa thất bại</t>
+  </si>
+  <si>
     <t>Test Case Description</t>
   </si>
   <si>
@@ -162,6 +494,97 @@
   </si>
   <si>
     <t>Test Case Procedure Các bước test</t>
+  </si>
+  <si>
+    <t>Thêm khách hàng mới Không cho phép nhập Mã khách hàng</t>
+  </si>
+  <si>
+    <t>Thêm khách hàng mới Không nhập dữ liệu cho khách hàng mới được thêm</t>
+  </si>
+  <si>
+    <t>Thêm khách hàng mới Nhập không đầy đủ thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Sửa thông tin khách hàng Không cho phép sửa mã khách hàng</t>
+  </si>
+  <si>
+    <t>Sửa thông tin khách hàng Xóa các thông tin được hiển thị trên textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm khách hàng theo tên
+Nhập đúng tên có dấu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm khách hàng theo tên
+Nhập tên định dạng thường và không dấu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm khách hàng theo tên
+Tìm khách hàng không tên có trong danh sách Khách hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm khách hàng theo tên
+Để trống ô tìm kiếm </t>
+  </si>
+  <si>
+    <t>Tìm kiếm khách hàng theo mã khách hàng
+Nhập đúng mã khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm khách hàng theo mã khách hàng
+Tìm khách hàng không mã có trong danh sách Khách hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm khách hàng theo mã 
+Để trống ô tìm kiếm </t>
+  </si>
+  <si>
+    <t>Sửa thông tin đơn hàngSửa thông tin nhân viên, khách hàng, sản phẩm</t>
+  </si>
+  <si>
+    <t>Sửa thông tin đơn hàngXóa trống trường dữ liệu số lượng hoặc giảm giá</t>
+  </si>
+  <si>
+    <t>Tìm kiếm danh mục sản phẩm Tìm theo tên sản phẩm - Nhập đúng tên</t>
+  </si>
+  <si>
+    <t>Tìm kiếm danh mục sản phẩm Tìm theo tên sản phẩm - Nhập sai tên</t>
+  </si>
+  <si>
+    <t>Tìm kiếm danh mục sản phẩm Tìm theo mã sản phẩm - Nhập đúng mã</t>
+  </si>
+  <si>
+    <t>Tìm kiếm danh mục sản phẩm Tìm theo mã sản phẩm - Nhập số - mã sai</t>
+  </si>
+  <si>
+    <t>Tìm kiếm danh mục sản phẩm Tìm theo mã sản phẩm - Nhập vào là chữ cái</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đơn hàng Tìm theo mã khách hàng - Nhập vào là chữ cái</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đơn hàng Tìm theo mã khách hàng - Nhập đúng mã khách hàng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đơn hàng Tìm theo mã đơn hàng - Nhập đúng mã đơn hàng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đơn hàng Tìm theo mã đơn hàng - Nhập sai mã đơn hàng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đơn hàng Tìm theo mã đơn hàng - Nhập vào chữ cái</t>
+  </si>
+  <si>
+    <t>Sửa thông tin đơn hàng Sửa thông tin ngày giao hàng trước ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>Đăng nhập Không biết tài khoản đăng nhập vào hệ thống</t>
+  </si>
+  <si>
+    <t>Đăng nhập Sử dụng tài khoản với quyền là Nhân viên</t>
+  </si>
+  <si>
+    <t>Đăng nhập Sử dụng tài khoản với quyền là Quản lý</t>
   </si>
   <si>
     <r>
@@ -213,6 +636,102 @@
   </si>
   <si>
     <t>TC.006</t>
+  </si>
+  <si>
+    <t>TC.007</t>
+  </si>
+  <si>
+    <t>TC.008</t>
+  </si>
+  <si>
+    <t>TC.009</t>
+  </si>
+  <si>
+    <t>TC.010</t>
+  </si>
+  <si>
+    <t>TC.011</t>
+  </si>
+  <si>
+    <t>TC.012</t>
+  </si>
+  <si>
+    <t>TC.013</t>
+  </si>
+  <si>
+    <t>TC.014</t>
+  </si>
+  <si>
+    <t>TC.015</t>
+  </si>
+  <si>
+    <t>TC.016</t>
+  </si>
+  <si>
+    <t>TC.017</t>
+  </si>
+  <si>
+    <t>TC.018</t>
+  </si>
+  <si>
+    <t>TC.019</t>
+  </si>
+  <si>
+    <t>TC.20</t>
+  </si>
+  <si>
+    <t>TC.21</t>
+  </si>
+  <si>
+    <t>TC.22</t>
+  </si>
+  <si>
+    <t>TC.23</t>
+  </si>
+  <si>
+    <t>TC.24</t>
+  </si>
+  <si>
+    <t>TC.25</t>
+  </si>
+  <si>
+    <t>TC.26</t>
+  </si>
+  <si>
+    <t>TC.27</t>
+  </si>
+  <si>
+    <t>TC.28</t>
+  </si>
+  <si>
+    <t>TC.29</t>
+  </si>
+  <si>
+    <t>TC.30</t>
+  </si>
+  <si>
+    <t>TC.31</t>
+  </si>
+  <si>
+    <t>TC.32</t>
+  </si>
+  <si>
+    <t>TC.33</t>
+  </si>
+  <si>
+    <t>TC.34</t>
+  </si>
+  <si>
+    <t>TC.35</t>
+  </si>
+  <si>
+    <t>TC.36</t>
+  </si>
+  <si>
+    <t>TC.37</t>
+  </si>
+  <si>
+    <t>TC.38</t>
   </si>
   <si>
     <r>
@@ -239,12 +758,15 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Thao tác với 'Khách hàng' trong form 'Đặt hàng'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +808,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -301,6 +830,12 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -360,7 +895,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -610,11 +1145,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -668,46 +1240,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -761,8 +1336,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2303,13 +2887,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -2318,47 +2902,47 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="45" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="45"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -2413,11 +2997,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="17"/>
       <c r="E7" s="13"/>
       <c r="F7" s="5"/>
@@ -2432,10 +3016,10 @@
       <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="47">
         <v>38</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="15"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2448,10 +3032,10 @@
       <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="47">
         <v>22</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="15"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2464,10 +3048,10 @@
       <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="49">
         <v>16</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="15"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2499,11 +3083,11 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2550,659 +3134,1328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="35.625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="24" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="24"/>
+    <col min="1" max="1" width="11.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="25" customWidth="1"/>
+    <col min="6" max="7" width="12.625" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="21" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:17" s="22" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+    <row r="2" spans="1:17" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="Q3" s="29"/>
+        <v>61</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:17" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="26" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:7" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:7" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:7" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:7" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:7" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:7" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:7" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+    </row>
+    <row r="41" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="29"/>
+    </row>
     <row r="44" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
       <c r="F44" s="19"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="29"/>
     </row>
     <row r="45" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
       <c r="F45" s="19"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="28"/>
+      <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="29"/>
     </row>
     <row r="48" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="28"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="28"/>
+      <c r="G50" s="29"/>
     </row>
     <row r="51" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="28"/>
+      <c r="G51" s="29"/>
     </row>
     <row r="52" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="28"/>
+      <c r="G52" s="29"/>
     </row>
     <row r="53" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="28"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="28"/>
+      <c r="G54" s="29"/>
     </row>
     <row r="55" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="29"/>
     </row>
     <row r="56" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="28"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="28"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="28"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
       <c r="F59" s="19"/>
-      <c r="G59" s="28"/>
+      <c r="G59" s="29"/>
     </row>
     <row r="60" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="28"/>
+      <c r="G60" s="29"/>
     </row>
     <row r="61" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="28"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="19"/>
-      <c r="G62" s="28"/>
+      <c r="G62" s="29"/>
     </row>
     <row r="63" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="19"/>
-      <c r="G63" s="28"/>
+      <c r="G63" s="29"/>
     </row>
     <row r="64" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
       <c r="F64" s="19"/>
-      <c r="G64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="28"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="66" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="28"/>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
       <c r="F67" s="19"/>
-      <c r="G67" s="28"/>
+      <c r="G67" s="29"/>
     </row>
     <row r="68" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
       <c r="F69" s="19"/>
-      <c r="G69" s="28"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
       <c r="F70" s="19"/>
-      <c r="G70" s="28"/>
+      <c r="G70" s="29"/>
     </row>
     <row r="71" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
       <c r="F71" s="19"/>
-      <c r="G71" s="28"/>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
       <c r="F72" s="19"/>
-      <c r="G72" s="28"/>
+      <c r="G72" s="29"/>
     </row>
     <row r="73" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
       <c r="F73" s="19"/>
-      <c r="G73" s="28"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="28"/>
+      <c r="G74" s="29"/>
     </row>
     <row r="75" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="19"/>
-      <c r="G75" s="28"/>
+      <c r="G75" s="29"/>
     </row>
     <row r="76" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
       <c r="F76" s="19"/>
-      <c r="G76" s="28"/>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
       <c r="F77" s="19"/>
-      <c r="G77" s="28"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
       <c r="F78" s="19"/>
-      <c r="G78" s="28"/>
+      <c r="G78" s="29"/>
     </row>
     <row r="79" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
       <c r="F79" s="19"/>
-      <c r="G79" s="28"/>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="28"/>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="28"/>
+      <c r="G81" s="29"/>
     </row>
     <row r="82" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="28"/>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="28"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="28"/>
+      <c r="G84" s="29"/>
     </row>
     <row r="85" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="28"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="86" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="28"/>
+      <c r="G86" s="29"/>
     </row>
     <row r="87" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="28"/>
+      <c r="G87" s="29"/>
     </row>
     <row r="88" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="28"/>
+      <c r="G88" s="29"/>
     </row>
     <row r="89" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="28"/>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="28"/>
+      <c r="G90" s="29"/>
     </row>
     <row r="91" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
       <c r="F91" s="19"/>
-      <c r="G91" s="28"/>
+      <c r="G91" s="29"/>
     </row>
     <row r="92" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="28"/>
+      <c r="G92" s="29"/>
     </row>
     <row r="93" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
       <c r="F93" s="19"/>
-      <c r="G93" s="28"/>
+      <c r="G93" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="A40:G40"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A23:G23"/>
   </mergeCells>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="158" priority="186" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="157" priority="184" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="185" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="155" priority="183" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="154" priority="181" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="182" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F44:F49">
     <cfRule type="containsText" dxfId="152" priority="171" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",F44)))</formula>
@@ -3476,8 +4729,398 @@
       <formula>NOT(ISERROR(SEARCH("Passed",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="89" priority="93" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="92" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="83" priority="87" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="86" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="80" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="77" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="containsText" dxfId="70" priority="73" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="74" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="64" priority="67" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="68" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="59" priority="63" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="62" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="53" priority="57" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="52" priority="55" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="53" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="47" priority="51" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F8 F44:F93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F8 F10:F22 F24:F39 F41:F93">
       <formula1>"Passed, Failed, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCase_VLXD.xlsx
+++ b/TestCase_VLXD.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Test Case" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Case'!$A$1:$G$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Case'!$A$1:$G$96</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="180">
   <si>
     <t>1.    Phạm vi test</t>
   </si>
@@ -197,10 +197,6 @@
     </r>
   </si>
   <si>
-    <t>1. Nhập dữ liệu và để trống một trong số các hộp: Họ, tên, địa chỉ, số điện thoại.
-2. Bấm nút "Thêm".</t>
-  </si>
-  <si>
     <t>1. Nhấn vào hàng hoặc cột bất kỳ của bảng khách hàng.
 2. Sửa lại thông tin trên các textbox thông tin
 3. Bấm nút "Sửa"</t>
@@ -216,10 +212,6 @@
 3. Bấm nút "Sửa"</t>
   </si>
   <si>
-    <t>- Hiển thị thông báo "Không được sửa nếu như thiếu thông tin khách hàng".
-- Sửa thông tin khách hàng thất bại.</t>
-  </si>
-  <si>
     <t>1. Tick chọn "Theo tên".
 2. Điền vào ô tìm kiếm: Dung
 3. Bấm nút "Tìm".</t>
@@ -281,37 +273,10 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>Đặt hàng</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
     <t>Hệ thống chưa xử lý được</t>
-  </si>
-  <si>
-    <t>Chọn ngày giao hàng trước ngày đặt hàng</t>
-  </si>
-  <si>
-    <t>1. Chọn ngày giao hàng trước ngày đặt hàng</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Phải chọn ngày giao hàng sau ngày đặt hàng"
-- Không thể đặt hàng</t>
-  </si>
-  <si>
-    <t>Chọn ngày giao hàng cùng ngày với ngày đặt hàng</t>
-  </si>
-  <si>
-    <t>1. Chọn ngày giao hàng cùng ngày với ngày đặt hàng</t>
-  </si>
-  <si>
-    <t>Chọn ngày giao hàng sau ngày đặt hàng</t>
-  </si>
-  <si>
-    <t>1. Chọn ngày giao hàng sau ngày đặt hàng
-2. Bấm nút "Thêm"
-2. Xác nhận Tạo hóa đơn mới</t>
   </si>
   <si>
     <t>- Hiển thị thông báo "Bạn muốn tạo hóa đơn mới không?"
@@ -496,49 +461,6 @@
     <t>Test Case Procedure Các bước test</t>
   </si>
   <si>
-    <t>Thêm khách hàng mới Không cho phép nhập Mã khách hàng</t>
-  </si>
-  <si>
-    <t>Thêm khách hàng mới Không nhập dữ liệu cho khách hàng mới được thêm</t>
-  </si>
-  <si>
-    <t>Thêm khách hàng mới Nhập không đầy đủ thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>Sửa thông tin khách hàng Không cho phép sửa mã khách hàng</t>
-  </si>
-  <si>
-    <t>Sửa thông tin khách hàng Xóa các thông tin được hiển thị trên textbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm kiếm khách hàng theo tên
-Nhập đúng tên có dấu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm kiếm khách hàng theo tên
-Nhập tên định dạng thường và không dấu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm kiếm khách hàng theo tên
-Tìm khách hàng không tên có trong danh sách Khách hàng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm kiếm khách hàng theo tên
-Để trống ô tìm kiếm </t>
-  </si>
-  <si>
-    <t>Tìm kiếm khách hàng theo mã khách hàng
-Nhập đúng mã khách hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm kiếm khách hàng theo mã khách hàng
-Tìm khách hàng không mã có trong danh sách Khách hàng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm kiếm khách hàng theo mã 
-Để trống ô tìm kiếm </t>
-  </si>
-  <si>
     <t>Sửa thông tin đơn hàngSửa thông tin nhân viên, khách hàng, sản phẩm</t>
   </si>
   <si>
@@ -760,6 +682,95 @@
   </si>
   <si>
     <t>Thao tác với 'Khách hàng' trong form 'Đặt hàng'</t>
+  </si>
+  <si>
+    <t>Nhập không đầy đủ thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Không nhập dữ liệu cho Khách hàng mới</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập dữ liệu cho Khách hàng mới </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Không nhập Mã khách hàng)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Nhập dữ liệu và để trống một trong số các hộp: Họ/ Tên/ Địa chỉ/ Số điện thoại.
+2. Bấm nút "Thêm".</t>
+  </si>
+  <si>
+    <t>Sửa thông tin khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xóa các thông tin được hiển thị trên textbox</t>
+  </si>
+  <si>
+    <t>Không cho phép sửa mã khách hàng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Không được sửa nếu như thiếu thông tin khách hàng".
+-  Thất bại.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm khách hàng theo tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập đúng tên có dấu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập tên định dạng thường và không dấu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để trống ô tìm kiếm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm khách hàng không mã có trong danh sách Khách hàng </t>
+  </si>
+  <si>
+    <t>Nhập đúng mã khách hàng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm khách hàng theo mã khách hàng</t>
+  </si>
+  <si>
+    <t>1. trước ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Phải sau ngày đặt hàng"
+- Không thể đặt hàng</t>
+  </si>
+  <si>
+    <t>1. cùng ngày với ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>1. sau ngày đặt hàng
+2. Bấm nút "Thêm"
+2. Xác nhận Tạo hóa đơn mới</t>
+  </si>
+  <si>
+    <t>Đặt hàng: Chọn ngày giao hàng…</t>
+  </si>
+  <si>
+    <t>Trước ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>Cùng ngày với ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>Sau ngày đặt hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm khách hàng không tên có trong danh sách Khách hàng </t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1249,15 +1260,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1346,6 +1348,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2887,13 +2901,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -2902,47 +2916,47 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="46"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -2997,11 +3011,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="17"/>
       <c r="E7" s="13"/>
       <c r="F7" s="5"/>
@@ -3016,10 +3030,10 @@
       <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="44">
         <v>38</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="15"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -3032,10 +3046,10 @@
       <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="44">
         <v>22</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="15"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -3048,10 +3062,10 @@
       <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="46">
         <v>16</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="15"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -3083,11 +3097,11 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3132,1523 +3146,1540 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="35.625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="25" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="25"/>
+    <col min="1" max="1" width="11.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="22" customWidth="1"/>
+    <col min="6" max="7" width="12.625" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="22" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:17" s="53" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="Q3" s="30"/>
+        <v>59</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="45.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="29"/>
+      <c r="D8" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="26"/>
       <c r="F8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="A9" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="D15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="D16" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="D19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="27" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="29"/>
+        <v>133</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="20"/>
       <c r="F24" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="29"/>
+        <v>60</v>
+      </c>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="29"/>
+        <v>134</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="20"/>
       <c r="F25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="29"/>
       <c r="F31" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="29"/>
+        <v>60</v>
+      </c>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="29"/>
+        <v>140</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="26"/>
       <c r="F32" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+    </row>
+    <row r="44" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="29" t="s">
+      <c r="E44" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="29" t="s">
+      <c r="F44" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D45" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="29" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D46" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
-    </row>
-    <row r="41" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="29"/>
-    </row>
-    <row r="45" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="29"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="29"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="19"/>
-      <c r="G48" s="29"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="29"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="19"/>
-      <c r="G50" s="29"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
       <c r="F51" s="19"/>
-      <c r="G51" s="29"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="19"/>
-      <c r="G52" s="29"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
       <c r="F53" s="19"/>
-      <c r="G53" s="29"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="29"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="29"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
       <c r="F56" s="19"/>
-      <c r="G56" s="29"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="19"/>
-      <c r="G57" s="29"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="29"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
       <c r="F59" s="19"/>
-      <c r="G59" s="29"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
       <c r="F60" s="19"/>
-      <c r="G60" s="29"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="29"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="19"/>
-      <c r="G62" s="29"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
       <c r="F63" s="19"/>
-      <c r="G63" s="29"/>
+      <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
       <c r="F64" s="19"/>
-      <c r="G64" s="29"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
       <c r="F65" s="19"/>
-      <c r="G65" s="29"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="29"/>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
       <c r="F67" s="19"/>
-      <c r="G67" s="29"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
       <c r="F68" s="19"/>
-      <c r="G68" s="29"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
       <c r="F69" s="19"/>
-      <c r="G69" s="29"/>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
       <c r="F70" s="19"/>
-      <c r="G70" s="29"/>
+      <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
       <c r="F71" s="19"/>
-      <c r="G71" s="29"/>
+      <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
       <c r="F72" s="19"/>
-      <c r="G72" s="29"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
       <c r="F73" s="19"/>
-      <c r="G73" s="29"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="29"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
       <c r="F75" s="19"/>
-      <c r="G75" s="29"/>
+      <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
       <c r="F76" s="19"/>
-      <c r="G76" s="29"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
       <c r="F77" s="19"/>
-      <c r="G77" s="29"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="19"/>
-      <c r="G78" s="29"/>
+      <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
       <c r="F79" s="19"/>
-      <c r="G79" s="29"/>
+      <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
       <c r="F80" s="19"/>
-      <c r="G80" s="29"/>
+      <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
       <c r="F81" s="19"/>
-      <c r="G81" s="29"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
       <c r="F82" s="19"/>
-      <c r="G82" s="29"/>
+      <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="29"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
       <c r="F84" s="19"/>
-      <c r="G84" s="29"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
       <c r="F85" s="19"/>
-      <c r="G85" s="29"/>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
       <c r="F86" s="19"/>
-      <c r="G86" s="29"/>
+      <c r="G86" s="26"/>
     </row>
     <row r="87" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
       <c r="F87" s="19"/>
-      <c r="G87" s="29"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
       <c r="F88" s="19"/>
-      <c r="G88" s="29"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
       <c r="F89" s="19"/>
-      <c r="G89" s="29"/>
+      <c r="G89" s="26"/>
     </row>
     <row r="90" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
       <c r="F90" s="19"/>
-      <c r="G90" s="29"/>
+      <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
       <c r="F91" s="19"/>
-      <c r="G91" s="29"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
       <c r="F92" s="19"/>
-      <c r="G92" s="29"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
       <c r="F93" s="19"/>
-      <c r="G93" s="29"/>
+      <c r="G93" s="26"/>
+    </row>
+    <row r="94" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="19"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="26"/>
+    </row>
+    <row r="95" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="19"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="26"/>
+    </row>
+    <row r="96" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="19"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A40:G40"/>
+  <mergeCells count="7">
+    <mergeCell ref="A43:G43"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F27">
     <cfRule type="containsText" dxfId="158" priority="186" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="containsText" dxfId="157" priority="184" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="156" priority="185" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+      <formula>NOT(ISERROR(SEARCH("Passed",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
     <cfRule type="containsText" dxfId="155" priority="183" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
     <cfRule type="containsText" dxfId="154" priority="181" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="153" priority="182" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
+      <formula>NOT(ISERROR(SEARCH("Passed",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:F52">
     <cfRule type="containsText" dxfId="152" priority="171" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:F52">
     <cfRule type="containsText" dxfId="151" priority="169" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="150" priority="170" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+      <formula>NOT(ISERROR(SEARCH("Passed",F47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
     <cfRule type="containsText" dxfId="149" priority="168" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
     <cfRule type="containsText" dxfId="148" priority="166" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="147" priority="167" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+      <formula>NOT(ISERROR(SEARCH("Passed",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
     <cfRule type="containsText" dxfId="146" priority="165" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
     <cfRule type="containsText" dxfId="145" priority="163" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="144" priority="164" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
+      <formula>NOT(ISERROR(SEARCH("Passed",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
     <cfRule type="containsText" dxfId="143" priority="162" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
     <cfRule type="containsText" dxfId="142" priority="160" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="141" priority="161" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53:F59">
+      <formula>NOT(ISERROR(SEARCH("Passed",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:F62">
     <cfRule type="containsText" dxfId="140" priority="159" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53:F59">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:F62">
     <cfRule type="containsText" dxfId="139" priority="157" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F56)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="138" priority="158" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60:F65">
+      <formula>NOT(ISERROR(SEARCH("Passed",F56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63:F68">
     <cfRule type="containsText" dxfId="137" priority="144" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60:F65">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63:F68">
     <cfRule type="containsText" dxfId="136" priority="142" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F60)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="135" priority="143" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
+      <formula>NOT(ISERROR(SEARCH("Passed",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
     <cfRule type="containsText" dxfId="134" priority="141" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
     <cfRule type="containsText" dxfId="133" priority="139" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F66)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F69)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="132" priority="140" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+      <formula>NOT(ISERROR(SEARCH("Passed",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
     <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
     <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F67)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="129" priority="137" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
+      <formula>NOT(ISERROR(SEARCH("Passed",F70)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71">
     <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71">
     <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F68)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F71)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="126" priority="134" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69:F75">
+      <formula>NOT(ISERROR(SEARCH("Passed",F71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:F78">
     <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69:F75">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:F78">
     <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F72)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="123" priority="131" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76:F83">
+      <formula>NOT(ISERROR(SEARCH("Passed",F72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:F86">
     <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76:F83">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:F86">
     <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F79)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="120" priority="128" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
+      <formula>NOT(ISERROR(SEARCH("Passed",F79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
     <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
     <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F84)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F87)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="117" priority="125" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
+      <formula>NOT(ISERROR(SEARCH("Passed",F87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F88">
     <cfRule type="containsText" dxfId="116" priority="123" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F88">
     <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F85)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F88)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="114" priority="122" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
+      <formula>NOT(ISERROR(SEARCH("Passed",F88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89">
     <cfRule type="containsText" dxfId="113" priority="120" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F89)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89">
     <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F86)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F89)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="111" priority="119" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F93">
+      <formula>NOT(ISERROR(SEARCH("Passed",F89)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:F96">
     <cfRule type="containsText" dxfId="110" priority="117" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F93">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:F96">
     <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F87)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F90)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="108" priority="116" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F87)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
@@ -4781,346 +4812,346 @@
       <formula>NOT(ISERROR(SEARCH("Passed",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F15">
     <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
     <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="75" priority="80" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+      <formula>NOT(ISERROR(SEARCH("Passed",F15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="72" priority="77" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+      <formula>NOT(ISERROR(SEARCH("Passed",F16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="containsText" dxfId="70" priority="73" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="74" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+      <formula>NOT(ISERROR(SEARCH("Passed",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+      <formula>NOT(ISERROR(SEARCH("Passed",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="containsText" dxfId="64" priority="67" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="68" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+      <formula>NOT(ISERROR(SEARCH("Passed",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+      <formula>NOT(ISERROR(SEARCH("Passed",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
     <cfRule type="containsText" dxfId="59" priority="63" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
     <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F23)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="62" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+      <formula>NOT(ISERROR(SEARCH("Passed",F23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+      <formula>NOT(ISERROR(SEARCH("Passed",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="containsText" dxfId="53" priority="57" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="containsText" dxfId="52" priority="55" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+      <formula>NOT(ISERROR(SEARCH("Passed",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="53" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+      <formula>NOT(ISERROR(SEARCH("Passed",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="containsText" dxfId="47" priority="51" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+      <formula>NOT(ISERROR(SEARCH("Passed",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+      <formula>NOT(ISERROR(SEARCH("Passed",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+      <formula>NOT(ISERROR(SEARCH("Passed",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+      <formula>NOT(ISERROR(SEARCH("Passed",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
     <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
     <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+      <formula>NOT(ISERROR(SEARCH("Passed",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
     <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
     <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+      <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
     <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
     <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+      <formula>NOT(ISERROR(SEARCH("Passed",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+      <formula>NOT(ISERROR(SEARCH("Passed",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
     <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
     <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+      <formula>NOT(ISERROR(SEARCH("Passed",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
     <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
     <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F39)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+      <formula>NOT(ISERROR(SEARCH("Passed",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
     <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
     <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+      <formula>NOT(ISERROR(SEARCH("Passed",F40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+      <formula>NOT(ISERROR(SEARCH("Passed",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
     <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
     <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F8 F10:F22 F24:F39 F41:F93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F8 F44:F96 F27:F42 F10:F13 F15:F16 F18:F21 F23:F25">
       <formula1>"Passed, Failed, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCase_VLXD.xlsx
+++ b/TestCase_VLXD.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Test Case" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Case'!$A$1:$G$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Case'!$A$1:$G$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
   <si>
     <t>1.    Phạm vi test</t>
   </si>
@@ -202,30 +202,17 @@
 3. Bấm nút "Sửa"</t>
   </si>
   <si>
-    <t xml:space="preserve">- Thông tin mã khách hàng Disable.
-- Hiển thị thông báo "Khách hàng được sửa thành công" và hiển thị lại thông tin được sửa trong danh sách khách hàng.
-</t>
-  </si>
-  <si>
     <t>1. Nhấn vào hàng hoặc cột bất kỳ của bảng khách hàng.
 2. Xóa hết tất cả thông tin được hiển thị trên textbox
 3. Bấm nút "Sửa"</t>
   </si>
   <si>
     <t>1. Tick chọn "Theo tên".
-2. Điền vào ô tìm kiếm: Dung
-3. Bấm nút "Tìm".</t>
-  </si>
-  <si>
-    <t>1. Tick chọn "Theo tên".
 2. Điền vào ô tìm kiếm: hong
 3. Bấm nút "Tìm".</t>
   </si>
   <si>
     <t>- Hiển thị một hoặc một danh sách các hàng dữ liệu có liên quan đến tên được nhập.</t>
-  </si>
-  <si>
-    <t>- Hiển thị hàng dữ liệu khách hàng được tìm kiếm theo tên được nhập.</t>
   </si>
   <si>
     <t>1. Tick chọn "Theo tên".
@@ -268,15 +255,6 @@
   <si>
     <t>- Hiển thị thông báo "Bạn phải nhập mã khách hàng cần tìm kiếm"
 - Tìm kiếm thất bại.</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Hệ thống chưa xử lý được</t>
   </si>
   <si>
     <t>- Hiển thị thông báo "Bạn muốn tạo hóa đơn mới không?"
@@ -461,45 +439,6 @@
     <t>Test Case Procedure Các bước test</t>
   </si>
   <si>
-    <t>Sửa thông tin đơn hàngSửa thông tin nhân viên, khách hàng, sản phẩm</t>
-  </si>
-  <si>
-    <t>Sửa thông tin đơn hàngXóa trống trường dữ liệu số lượng hoặc giảm giá</t>
-  </si>
-  <si>
-    <t>Tìm kiếm danh mục sản phẩm Tìm theo tên sản phẩm - Nhập đúng tên</t>
-  </si>
-  <si>
-    <t>Tìm kiếm danh mục sản phẩm Tìm theo tên sản phẩm - Nhập sai tên</t>
-  </si>
-  <si>
-    <t>Tìm kiếm danh mục sản phẩm Tìm theo mã sản phẩm - Nhập đúng mã</t>
-  </si>
-  <si>
-    <t>Tìm kiếm danh mục sản phẩm Tìm theo mã sản phẩm - Nhập số - mã sai</t>
-  </si>
-  <si>
-    <t>Tìm kiếm danh mục sản phẩm Tìm theo mã sản phẩm - Nhập vào là chữ cái</t>
-  </si>
-  <si>
-    <t>Tìm kiếm đơn hàng Tìm theo mã khách hàng - Nhập vào là chữ cái</t>
-  </si>
-  <si>
-    <t>Tìm kiếm đơn hàng Tìm theo mã khách hàng - Nhập đúng mã khách hàng</t>
-  </si>
-  <si>
-    <t>Tìm kiếm đơn hàng Tìm theo mã đơn hàng - Nhập đúng mã đơn hàng</t>
-  </si>
-  <si>
-    <t>Tìm kiếm đơn hàng Tìm theo mã đơn hàng - Nhập sai mã đơn hàng</t>
-  </si>
-  <si>
-    <t>Tìm kiếm đơn hàng Tìm theo mã đơn hàng - Nhập vào chữ cái</t>
-  </si>
-  <si>
-    <t>Sửa thông tin đơn hàng Sửa thông tin ngày giao hàng trước ngày đặt hàng</t>
-  </si>
-  <si>
     <t>Đăng nhập Không biết tài khoản đăng nhập vào hệ thống</t>
   </si>
   <si>
@@ -542,42 +481,6 @@
     <t>Điền tên đăng nhập, bỏ trống Mật khẩu</t>
   </si>
   <si>
-    <t>TC.001</t>
-  </si>
-  <si>
-    <t>TC.002</t>
-  </si>
-  <si>
-    <t>TC.003</t>
-  </si>
-  <si>
-    <t>TC.004</t>
-  </si>
-  <si>
-    <t>TC.005</t>
-  </si>
-  <si>
-    <t>TC.006</t>
-  </si>
-  <si>
-    <t>TC.007</t>
-  </si>
-  <si>
-    <t>TC.008</t>
-  </si>
-  <si>
-    <t>TC.009</t>
-  </si>
-  <si>
-    <t>TC.010</t>
-  </si>
-  <si>
-    <t>TC.011</t>
-  </si>
-  <si>
-    <t>TC.012</t>
-  </si>
-  <si>
     <t>TC.013</t>
   </si>
   <si>
@@ -654,6 +557,116 @@
   </si>
   <si>
     <t>TC.38</t>
+  </si>
+  <si>
+    <t>Nhập không đầy đủ thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>Không nhập dữ liệu cho Khách hàng mới</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập dữ liệu cho Khách hàng mới </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Không nhập Mã khách hàng)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Nhập dữ liệu và để trống một trong số các hộp: Họ/ Tên/ Địa chỉ/ Số điện thoại.
+2. Bấm nút "Thêm".</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Không được sửa nếu như thiếu thông tin khách hàng".
+-  Thất bại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập đúng tên có dấu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập tên định dạng thường và không dấu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để trống ô tìm kiếm </t>
+  </si>
+  <si>
+    <t>Nhập đúng mã khách hàng</t>
+  </si>
+  <si>
+    <t>1. trước ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo "Phải sau ngày đặt hàng"
+- Không thể đặt hàng</t>
+  </si>
+  <si>
+    <t>1. cùng ngày với ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>1. sau ngày đặt hàng
+2. Bấm nút "Thêm"
+2. Xác nhận Tạo hóa đơn mới</t>
+  </si>
+  <si>
+    <t>Đặt hàng: Chọn ngày giao hàng…</t>
+  </si>
+  <si>
+    <t>Nhập thông tin 'Khách hàng'</t>
+  </si>
+  <si>
+    <t>Sửa thông tin 'Khách hàng'</t>
+  </si>
+  <si>
+    <t>Tìm kiếm 'Khách hàng' theo tên</t>
+  </si>
+  <si>
+    <t>Sửa thông tin nhân viên, khách hàng, sản phẩm</t>
+  </si>
+  <si>
+    <t>Xóa trống trường dữ liệu số lượng hoặc giảm giá</t>
+  </si>
+  <si>
+    <t>Tìm theo tên sản phẩm - Nhập đúng tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm danh mục sản phẩm </t>
+  </si>
+  <si>
+    <t>Tìm theo tên sản phẩm - Nhập sai tên</t>
+  </si>
+  <si>
+    <t>Tìm theo mã sản phẩm - Nhập đúng mã</t>
+  </si>
+  <si>
+    <t>Tìm theo mã sản phẩm - Nhập số - mã sai</t>
+  </si>
+  <si>
+    <t>Tìm theo mã sản phẩm - Nhập vào là chữ cái</t>
+  </si>
+  <si>
+    <t>Tìm theo mã khách hàng - Nhập vào là chữ cái</t>
+  </si>
+  <si>
+    <t>Tìm theo mã khách hàng - Nhập đúng mã khách hàng</t>
+  </si>
+  <si>
+    <t>Tìm theo mã đơn hàng - Nhập đúng mã đơn hàng</t>
+  </si>
+  <si>
+    <t>Tìm theo mã đơn hàng - Nhập sai mã đơn hàng</t>
+  </si>
+  <si>
+    <t>Tìm theo mã đơn hàng - Nhập vào chữ cái</t>
+  </si>
+  <si>
+    <t>Sửa thông tin ngày giao hàng trước ngày đặt hàng</t>
   </si>
   <si>
     <r>
@@ -676,22 +689,44 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> " sang " 123 " và ngược lại nếu nhấn nút        lần nữa.
-</t>
+      <t xml:space="preserve"> " sang " 123 " và ngược lại nếu nhấn nút        lần nữa.</t>
     </r>
   </si>
   <si>
-    <t>Thao tác với 'Khách hàng' trong form 'Đặt hàng'</t>
-  </si>
-  <si>
-    <t>Nhập không đầy đủ thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>Không nhập dữ liệu cho Khách hàng mới</t>
+    <t>Để trống ô tìm kiếm</t>
+  </si>
+  <si>
+    <t>Tìm kiếm 'Khách hàng' theo mã khách hàng</t>
+  </si>
+  <si>
+    <t>Sửa thông tin 'Đơn hàng'</t>
+  </si>
+  <si>
+    <t>Tìm kiếm 'Đơn hàng'</t>
+  </si>
+  <si>
+    <t>Sửa thông tin 'Ngày giao hàng'</t>
+  </si>
+  <si>
+    <t>Thoát</t>
+  </si>
+  <si>
+    <t>1. Bấm nút "Thoát"/ "Đăng xuất"</t>
+  </si>
+  <si>
+    <t>- Form đặt hàng tắt.
+- Hiển thị hộp thoại Đăng nhập</t>
+  </si>
+  <si>
+    <t>Xóa các thông tin được hiển thị trên textbox</t>
+  </si>
+  <si>
+    <t>- Thông tin mã khách hàng Disable.
+- Hiển thị thông báo "Khách hàng được sửa thành công" và hiển thị lại thông tin được sửa trong danh sách khách hàng.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Nhập dữ liệu cho Khách hàng mới </t>
+      <t xml:space="preserve">Sửa thông tin khách hàng </t>
     </r>
     <r>
       <rPr>
@@ -701,83 +736,35 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>(Không nhập Mã khách hàng)</t>
+      <t>(không sửa mã khách hàng)</t>
     </r>
   </si>
   <si>
-    <t>1. Nhập dữ liệu và để trống một trong số các hộp: Họ/ Tên/ Địa chỉ/ Số điện thoại.
-2. Bấm nút "Thêm".</t>
-  </si>
-  <si>
-    <t>Sửa thông tin khách hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Xóa các thông tin được hiển thị trên textbox</t>
-  </si>
-  <si>
-    <t>Không cho phép sửa mã khách hàng</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Không được sửa nếu như thiếu thông tin khách hàng".
--  Thất bại.</t>
-  </si>
-  <si>
-    <t>Tìm kiếm khách hàng theo tên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập đúng tên có dấu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập tên định dạng thường và không dấu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Để trống ô tìm kiếm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm khách hàng không mã có trong danh sách Khách hàng </t>
-  </si>
-  <si>
-    <t>Nhập đúng mã khách hàng</t>
-  </si>
-  <si>
-    <t>Tìm kiếm khách hàng theo mã khách hàng</t>
-  </si>
-  <si>
-    <t>1. trước ngày đặt hàng</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông báo "Phải sau ngày đặt hàng"
-- Không thể đặt hàng</t>
-  </si>
-  <si>
-    <t>1. cùng ngày với ngày đặt hàng</t>
-  </si>
-  <si>
-    <t>1. sau ngày đặt hàng
-2. Bấm nút "Thêm"
-2. Xác nhận Tạo hóa đơn mới</t>
-  </si>
-  <si>
-    <t>Đặt hàng: Chọn ngày giao hàng…</t>
-  </si>
-  <si>
-    <t>Trước ngày đặt hàng</t>
-  </si>
-  <si>
-    <t>Cùng ngày với ngày đặt hàng</t>
-  </si>
-  <si>
-    <t>Sau ngày đặt hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm khách hàng không tên có trong danh sách Khách hàng </t>
+    <t>1. Tick chọn "Theo tên".
+2. Điền vào ô tìm kiếm: Hong
+3. Bấm nút "Tìm".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm khách hàng không có tên trong danh sách Khách hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm khách hàng không có mã trong danh sách Khách hàng </t>
+  </si>
+  <si>
+    <t>Ngày giao hàng trước ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>Ngày giao hàng cùng ngày với ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>Ngày giao hàng sau ngày đặt hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,16 +846,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1197,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1287,79 +1279,88 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2500,13 +2501,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>944403</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>440522</xdr:rowOff>
+      <xdr:rowOff>373847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2529,7 +2530,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3543300" y="3248025"/>
+          <a:off x="3524250" y="3171825"/>
           <a:ext cx="258603" cy="145247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2542,13 +2543,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>792003</xdr:colOff>
+      <xdr:colOff>782478</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>421472</xdr:rowOff>
     </xdr:to>
@@ -2573,7 +2574,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5562600" y="3228975"/>
+          <a:off x="6076950" y="3219450"/>
           <a:ext cx="258603" cy="145247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2901,13 +2902,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -2916,47 +2917,47 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -3011,10 +3012,10 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="36"/>
       <c r="D7" s="17"/>
       <c r="E7" s="13"/>
@@ -3030,10 +3031,10 @@
       <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="46">
         <v>38</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="15"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -3046,10 +3047,10 @@
       <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="46">
         <v>22</v>
       </c>
-      <c r="E9" s="45"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="15"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -3062,10 +3063,10 @@
       <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="48">
         <v>16</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="15"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -3124,6 +3125,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="G2:G3"/>
@@ -3133,11 +3139,6 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3146,17 +3147,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="22" customWidth="1"/>
     <col min="3" max="3" width="35.625" style="22" customWidth="1"/>
     <col min="4" max="4" width="49.5" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="22" customWidth="1"/>
@@ -3164,15 +3165,15 @@
     <col min="8" max="16384" width="9.125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="53" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="32" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>96</v>
+      <c r="B1" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>17</v>
@@ -3187,23 +3188,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:17" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>116</v>
-      </c>
+      <c r="A3" s="19"/>
       <c r="B3" s="23" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>25</v>
@@ -3212,18 +3211,14 @@
         <v>23</v>
       </c>
       <c r="E3" s="25"/>
-      <c r="F3" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="F3" s="19"/>
       <c r="G3" s="26"/>
       <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>117</v>
-      </c>
+      <c r="A4" s="19"/>
       <c r="B4" s="23" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>24</v>
@@ -3232,17 +3227,13 @@
         <v>23</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="F4" s="19"/>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>118</v>
-      </c>
+      <c r="A5" s="19"/>
       <c r="B5" s="23" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>26</v>
@@ -3251,17 +3242,13 @@
         <v>27</v>
       </c>
       <c r="E5" s="25"/>
-      <c r="F5" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="F5" s="19"/>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="A6" s="19"/>
       <c r="B6" s="23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>28</v>
@@ -3270,17 +3257,13 @@
         <v>29</v>
       </c>
       <c r="E6" s="25"/>
-      <c r="F6" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="A7" s="19"/>
       <c r="B7" s="23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>30</v>
@@ -3289,17 +3272,13 @@
         <v>31</v>
       </c>
       <c r="E7" s="25"/>
-      <c r="F7" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="F7" s="19"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="1:17" ht="45.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>121</v>
-      </c>
+    <row r="8" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
       <c r="B8" s="23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>32</v>
@@ -3308,740 +3287,664 @@
         <v>154</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="F8" s="19"/>
       <c r="G8" s="26"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="26" t="s">
+    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:17" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="C14" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-    </row>
-    <row r="15" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D16" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="D17" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="26"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="19" t="s">
-        <v>60</v>
-      </c>
+      <c r="F19" s="19"/>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="19" t="s">
-        <v>60</v>
-      </c>
+      <c r="F20" s="19"/>
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>167</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E21" s="20"/>
-      <c r="F21" s="19" t="s">
-        <v>60</v>
-      </c>
+      <c r="F21" s="19"/>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="1:7" s="55" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-    </row>
-    <row r="23" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="26" t="s">
+    <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="26"/>
+      <c r="D22" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="19" t="s">
-        <v>60</v>
-      </c>
+      <c r="F24" s="19"/>
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56"/>
+    </row>
+    <row r="28" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="26" t="s">
+      <c r="D29" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56"/>
+    </row>
+    <row r="32" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D32" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-    </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="24" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="56"/>
+    </row>
+    <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="E36" s="26"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D37" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="E37" s="26"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+    </row>
+    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="D42" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="D43" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="26" t="s">
+      <c r="D44" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="26"/>
-    </row>
-    <row r="38" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="26"/>
-    </row>
-    <row r="41" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="26"/>
-    </row>
-    <row r="42" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="26"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
-    </row>
-    <row r="44" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="24" t="s">
+      <c r="D45" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
+    </row>
+    <row r="47" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="D47" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="26"/>
-    </row>
-    <row r="47" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="19"/>
       <c r="G47" s="26"/>
     </row>
-    <row r="48" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="26"/>
-    </row>
-    <row r="49" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+    <row r="48" spans="1:7" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+    </row>
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>79</v>
+      </c>
       <c r="F49" s="19"/>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="E50" s="26"/>
       <c r="F50" s="19"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+    <row r="51" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="E51" s="26"/>
       <c r="F51" s="19"/>
       <c r="G51" s="26"/>
@@ -4057,7 +3960,7 @@
     </row>
     <row r="53" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
-      <c r="B53" s="26"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
@@ -4156,7 +4059,7 @@
     </row>
     <row r="64" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
-      <c r="B64" s="28"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
@@ -4201,7 +4104,7 @@
     </row>
     <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
-      <c r="B69" s="26"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
@@ -4300,7 +4203,7 @@
     </row>
     <row r="80" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
@@ -4345,7 +4248,7 @@
     </row>
     <row r="85" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
-      <c r="B85" s="26"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
@@ -4451,235 +4354,284 @@
       <c r="F96" s="19"/>
       <c r="G96" s="26"/>
     </row>
+    <row r="97" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="19"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="26"/>
+    </row>
+    <row r="98" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="19"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="26"/>
+    </row>
+    <row r="99" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="19"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="26"/>
+    </row>
+    <row r="100" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="19"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="26"/>
+    </row>
+    <row r="101" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="19"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A43:G43"/>
+  <mergeCells count="11">
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A48:G48"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F28">
     <cfRule type="containsText" dxfId="158" priority="186" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="containsText" dxfId="157" priority="184" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="156" priority="185" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+      <formula>NOT(ISERROR(SEARCH("Passed",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="containsText" dxfId="155" priority="183" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="containsText" dxfId="154" priority="181" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="153" priority="182" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
+      <formula>NOT(ISERROR(SEARCH("Passed",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:F57">
     <cfRule type="containsText" dxfId="152" priority="171" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:F57">
     <cfRule type="containsText" dxfId="151" priority="169" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="150" priority="170" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+      <formula>NOT(ISERROR(SEARCH("Passed",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
     <cfRule type="containsText" dxfId="149" priority="168" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
     <cfRule type="containsText" dxfId="148" priority="166" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F58)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="147" priority="167" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+      <formula>NOT(ISERROR(SEARCH("Passed",F58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
     <cfRule type="containsText" dxfId="146" priority="165" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
     <cfRule type="containsText" dxfId="145" priority="163" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F59)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="144" priority="164" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+      <formula>NOT(ISERROR(SEARCH("Passed",F59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
     <cfRule type="containsText" dxfId="143" priority="162" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
     <cfRule type="containsText" dxfId="142" priority="160" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F60)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="141" priority="161" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56:F62">
+      <formula>NOT(ISERROR(SEARCH("Passed",F60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61:F67">
     <cfRule type="containsText" dxfId="140" priority="159" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56:F62">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61:F67">
     <cfRule type="containsText" dxfId="139" priority="157" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F61)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="138" priority="158" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63:F68">
+      <formula>NOT(ISERROR(SEARCH("Passed",F61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F73">
     <cfRule type="containsText" dxfId="137" priority="144" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63:F68">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F73">
     <cfRule type="containsText" dxfId="136" priority="142" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F63)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F68)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="135" priority="143" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+      <formula>NOT(ISERROR(SEARCH("Passed",F68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
     <cfRule type="containsText" dxfId="134" priority="141" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
     <cfRule type="containsText" dxfId="133" priority="139" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F74)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="132" priority="140" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
+      <formula>NOT(ISERROR(SEARCH("Passed",F74)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
     <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
     <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="129" priority="137" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
+      <formula>NOT(ISERROR(SEARCH("Passed",F75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
     <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
     <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F71)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F76)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="126" priority="134" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72:F78">
+      <formula>NOT(ISERROR(SEARCH("Passed",F76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77:F83">
     <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72:F78">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77:F83">
     <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F72)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F77)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="123" priority="131" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F86">
+      <formula>NOT(ISERROR(SEARCH("Passed",F77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:F91">
     <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:F86">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:F91">
     <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F79)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F84)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="120" priority="128" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
+      <formula>NOT(ISERROR(SEARCH("Passed",F84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92">
     <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92">
     <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F87)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F92)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="117" priority="125" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
+      <formula>NOT(ISERROR(SEARCH("Passed",F92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93">
     <cfRule type="containsText" dxfId="116" priority="123" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93">
     <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F88)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F93)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="114" priority="122" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+      <formula>NOT(ISERROR(SEARCH("Passed",F93)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94">
     <cfRule type="containsText" dxfId="113" priority="120" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F89)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94">
     <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F89)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F94)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="111" priority="119" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F89)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F96">
+      <formula>NOT(ISERROR(SEARCH("Passed",F94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:F101">
     <cfRule type="containsText" dxfId="110" priority="117" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F90)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F96">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F95)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:F101">
     <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F95)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="108" priority="116" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
@@ -4747,12 +4699,12 @@
       <formula>NOT(ISERROR(SEARCH("Passed",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="containsText" dxfId="91" priority="94" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F8)))</formula>
     </cfRule>
@@ -4760,398 +4712,398 @@
       <formula>NOT(ISERROR(SEARCH("Passed",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F11">
     <cfRule type="containsText" dxfId="89" priority="93" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
     <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="87" priority="92" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+      <formula>NOT(ISERROR(SEARCH("Passed",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
     <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
     <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+      <formula>NOT(ISERROR(SEARCH("Passed",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="containsText" dxfId="83" priority="87" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="81" priority="86" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+      <formula>NOT(ISERROR(SEARCH("Passed",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+      <formula>NOT(ISERROR(SEARCH("Passed",F14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="75" priority="80" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+      <formula>NOT(ISERROR(SEARCH("Passed",F16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
     <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
     <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F17)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="72" priority="77" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+      <formula>NOT(ISERROR(SEARCH("Passed",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="containsText" dxfId="70" priority="73" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="74" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+      <formula>NOT(ISERROR(SEARCH("Passed",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+      <formula>NOT(ISERROR(SEARCH("Passed",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
     <cfRule type="containsText" dxfId="64" priority="67" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="63" priority="68" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+      <formula>NOT(ISERROR(SEARCH("Passed",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+      <formula>NOT(ISERROR(SEARCH("Passed",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="containsText" dxfId="59" priority="63" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="57" priority="62" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+      <formula>NOT(ISERROR(SEARCH("Passed",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F24)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+      <formula>NOT(ISERROR(SEARCH("Passed",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="containsText" dxfId="53" priority="57" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="containsText" dxfId="52" priority="55" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F26)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+      <formula>NOT(ISERROR(SEARCH("Passed",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="53" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+      <formula>NOT(ISERROR(SEARCH("Passed",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="containsText" dxfId="47" priority="51" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+      <formula>NOT(ISERROR(SEARCH("Passed",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+      <formula>NOT(ISERROR(SEARCH("Passed",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
     <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
     <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+      <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
     <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
     <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+      <formula>NOT(ISERROR(SEARCH("Passed",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
     <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+      <formula>NOT(ISERROR(SEARCH("Passed",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
     <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
     <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+      <formula>NOT(ISERROR(SEARCH("Passed",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
     <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
     <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F39)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+      <formula>NOT(ISERROR(SEARCH("Passed",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+      <formula>NOT(ISERROR(SEARCH("Passed",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
     <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
     <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+      <formula>NOT(ISERROR(SEARCH("Passed",F42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
     <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
     <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+      <formula>NOT(ISERROR(SEARCH("Passed",F43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
     <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
     <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+      <formula>NOT(ISERROR(SEARCH("Passed",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
     <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
     <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+      <formula>NOT(ISERROR(SEARCH("Passed",F45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
     <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
     <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+      <formula>NOT(ISERROR(SEARCH("Passed",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+      <formula>NOT(ISERROR(SEARCH("Passed",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+      <formula>NOT(ISERROR(SEARCH("Passed",F51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F8 F44:F96 F27:F42 F10:F13 F15:F16 F18:F21 F23:F25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F9 F49:F101 F24:F26 F11:F14 F16:F17 F19:F22 F28:F30 F32:F33 F35:F39 F41:F45 F47">
       <formula1>"Passed, Failed, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCase_VLXD.xlsx
+++ b/TestCase_VLXD.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Test Case" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Case'!$A$1:$G$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Case'!$A$1:$G$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="175">
   <si>
     <t>1.    Phạm vi test</t>
   </si>
@@ -380,9 +380,6 @@
 4. Bấm vào button "Tìm kiếm"</t>
   </si>
   <si>
-    <t>Quản lý</t>
-  </si>
-  <si>
     <t>1. Click vào nút "Quản lý"
 2. Điền tên đăng nhập: abc
 3. Điền mật khẩu: 123456
@@ -420,10 +417,6 @@
 3. Bấm nút "Sửa"</t>
   </si>
   <si>
-    <t>- Hệ thống báo lỗi không thể sửa do thông tin sửa không đúng
--Sửa thất bại</t>
-  </si>
-  <si>
     <t>Test Case Description</t>
   </si>
   <si>
@@ -434,18 +427,6 @@
   </si>
   <si>
     <t>Kiểm tra nút ẩn - hiển mật khẩu</t>
-  </si>
-  <si>
-    <t>Test Case Procedure Các bước test</t>
-  </si>
-  <si>
-    <t>Đăng nhập Không biết tài khoản đăng nhập vào hệ thống</t>
-  </si>
-  <si>
-    <t>Đăng nhập Sử dụng tài khoản với quyền là Nhân viên</t>
-  </si>
-  <si>
-    <t>Đăng nhập Sử dụng tài khoản với quyền là Quản lý</t>
   </si>
   <si>
     <r>
@@ -631,39 +612,6 @@
   </si>
   <si>
     <t>Xóa trống trường dữ liệu số lượng hoặc giảm giá</t>
-  </si>
-  <si>
-    <t>Tìm theo tên sản phẩm - Nhập đúng tên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm kiếm danh mục sản phẩm </t>
-  </si>
-  <si>
-    <t>Tìm theo tên sản phẩm - Nhập sai tên</t>
-  </si>
-  <si>
-    <t>Tìm theo mã sản phẩm - Nhập đúng mã</t>
-  </si>
-  <si>
-    <t>Tìm theo mã sản phẩm - Nhập số - mã sai</t>
-  </si>
-  <si>
-    <t>Tìm theo mã sản phẩm - Nhập vào là chữ cái</t>
-  </si>
-  <si>
-    <t>Tìm theo mã khách hàng - Nhập vào là chữ cái</t>
-  </si>
-  <si>
-    <t>Tìm theo mã khách hàng - Nhập đúng mã khách hàng</t>
-  </si>
-  <si>
-    <t>Tìm theo mã đơn hàng - Nhập đúng mã đơn hàng</t>
-  </si>
-  <si>
-    <t>Tìm theo mã đơn hàng - Nhập sai mã đơn hàng</t>
-  </si>
-  <si>
-    <t>Tìm theo mã đơn hàng - Nhập vào chữ cái</t>
   </si>
   <si>
     <t>Sửa thông tin ngày giao hàng trước ngày đặt hàng</t>
@@ -702,9 +650,6 @@
     <t>Sửa thông tin 'Đơn hàng'</t>
   </si>
   <si>
-    <t>Tìm kiếm 'Đơn hàng'</t>
-  </si>
-  <si>
     <t>Sửa thông tin 'Ngày giao hàng'</t>
   </si>
   <si>
@@ -759,12 +704,203 @@
   <si>
     <t>Ngày giao hàng sau ngày đặt hàng</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tìm kiếm sản phẩm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>theo tên</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tìm kiếm sản phẩm theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mã sản phẩm</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhập đúng tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Nhập sai tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Test Case Procedure</t>
+  </si>
+  <si>
+    <t>Nhập đúng mã</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập mã sai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(số)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập mã sai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(chữ cái)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tìm kiếm khách hàng theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mã khách hàng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập sai mã khách hàng </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(chữ cái)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập sai mã khách hàng </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(số)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click vào ô tìm kiếm 
+2. Click vào nút "Theo mã khách hàng"
+3. Nhập chữ 9999
+4. Bấm vào button "Tìm kiếm"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tìm kiếm đơn hàng theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mã đơn hàng</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhập đúng mã đơn hàng</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập sai mã đơn hàng </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(chữ cái)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nhập sai mã đơn hàng </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(số)</t>
+    </r>
+  </si>
+  <si>
+    <t>- Hệ thống báo lỗi không thể sửa do thông tin sửa không đúng
+- Sửa thất bại</t>
+  </si>
+  <si>
+    <t>Đăng nhập tài khoản Quản lý</t>
+  </si>
+  <si>
+    <t>Nhập sai thông tin Quản lý: tên đăng nhập/ mật khẩu</t>
+  </si>
+  <si>
+    <t>Nhập sai thông tin: sử dụng tài khoản Nhân viên</t>
+  </si>
+  <si>
+    <t>Nhập đúng thông tin Quản lý</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,6 +996,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1189,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1249,12 +1393,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1267,25 +1405,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,6 +1450,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1306,12 +1471,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1336,17 +1495,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1357,11 +1507,8 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2550,8 +2697,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>782478</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>421472</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2372</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2887,7 +3034,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2902,13 +3049,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -2917,47 +3064,47 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="45"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
@@ -3012,11 +3159,11 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="17"/>
       <c r="E7" s="13"/>
       <c r="F7" s="5"/>
@@ -3031,10 +3178,10 @@
       <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="51">
         <v>38</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -3047,10 +3194,10 @@
       <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="51">
         <v>22</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="15"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -3063,10 +3210,10 @@
       <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="53">
         <v>16</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="15"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -3098,11 +3245,11 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3125,11 +3272,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="G2:G3"/>
@@ -3139,6 +3281,11 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3147,1271 +3294,1062 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="22" customWidth="1"/>
-    <col min="3" max="3" width="35.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="22" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="22"/>
+    <col min="1" max="1" width="11.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="31" customWidth="1"/>
+    <col min="6" max="7" width="12.625" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="32" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:17" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
-      <c r="B3" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="26"/>
-      <c r="Q3" s="27"/>
+      <c r="G3" s="24"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
-      <c r="B4" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="26"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
-      <c r="B5" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="26"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
-      <c r="B6" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
-      <c r="B7" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
-      <c r="B8" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="26"/>
+      <c r="D8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="26"/>
+      <c r="B9" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:17" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
-        <v>137</v>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:17" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
-      <c r="B12" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="26"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
-      <c r="B13" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="26"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
-        <v>138</v>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="26"/>
+      <c r="D16" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="24"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>127</v>
+      <c r="D17" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
-        <v>139</v>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
+        <v>133</v>
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="22" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="19"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
-        <v>156</v>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="55" t="s">
+        <v>139</v>
       </c>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
+      <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="22" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="26"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
-        <v>136</v>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="55" t="s">
+        <v>130</v>
       </c>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
-    </row>
-    <row r="28" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="26"/>
+        <v>98</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="24"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="26"/>
+        <v>99</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="24"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="26"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
-        <v>157</v>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="55" t="s">
+        <v>140</v>
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="26"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="22" t="s">
         <v>60</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
-        <v>143</v>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="55" t="s">
+        <v>154</v>
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="26"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="26"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="26"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="26"/>
+        <v>105</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="24"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="26"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D40" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
-    </row>
-    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="26"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="19"/>
-      <c r="G42" s="26"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="26"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+    </row>
+    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D47" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="26" t="s">
+      <c r="E47" s="24"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D48" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" spans="1:7" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
-    </row>
-    <row r="47" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="26"/>
-    </row>
-    <row r="48" spans="1:7" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+    </row>
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56"/>
-    </row>
-    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="26" t="s">
+      <c r="D52" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="E52" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="F52" s="19"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="26"/>
-    </row>
-    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="26" t="s">
+      <c r="D53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="E53" s="24"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="26"/>
-    </row>
-    <row r="51" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="26" t="s">
+      <c r="D54" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="26"/>
-    </row>
-    <row r="52" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="26"/>
-    </row>
-    <row r="53" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="26"/>
-    </row>
-    <row r="54" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="26"/>
-    </row>
-    <row r="55" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="26"/>
-    </row>
-    <row r="56" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="26"/>
-    </row>
-    <row r="58" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="26"/>
-    </row>
-    <row r="59" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="26"/>
-    </row>
-    <row r="60" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="26"/>
-    </row>
-    <row r="61" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="26"/>
-    </row>
-    <row r="62" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="26"/>
-    </row>
-    <row r="63" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="26"/>
-    </row>
-    <row r="64" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="26"/>
-    </row>
-    <row r="65" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="26"/>
-    </row>
-    <row r="66" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="26"/>
-    </row>
-    <row r="67" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="26"/>
-    </row>
-    <row r="68" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="26"/>
-    </row>
-    <row r="69" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="26"/>
-    </row>
-    <row r="70" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="26"/>
-    </row>
-    <row r="71" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="26"/>
-    </row>
-    <row r="72" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="26"/>
-    </row>
-    <row r="73" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="26"/>
-    </row>
-    <row r="74" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="26"/>
-    </row>
-    <row r="75" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="26"/>
-    </row>
-    <row r="76" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="26"/>
-    </row>
-    <row r="77" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="26"/>
-    </row>
-    <row r="78" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="26"/>
-    </row>
-    <row r="79" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="26"/>
-    </row>
-    <row r="80" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="26"/>
-    </row>
-    <row r="81" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="26"/>
-    </row>
-    <row r="82" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="26"/>
-    </row>
-    <row r="83" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="26"/>
-    </row>
-    <row r="84" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="26"/>
-    </row>
-    <row r="85" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="26"/>
-    </row>
-    <row r="86" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="26"/>
-    </row>
-    <row r="87" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="26"/>
-    </row>
-    <row r="88" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="26"/>
-    </row>
-    <row r="89" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="26"/>
-    </row>
-    <row r="90" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="26"/>
-    </row>
-    <row r="91" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="26"/>
-    </row>
-    <row r="92" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="26"/>
-    </row>
-    <row r="93" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="19"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="26"/>
-    </row>
-    <row r="94" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="19"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="26"/>
-    </row>
-    <row r="95" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="19"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="26"/>
-    </row>
-    <row r="96" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="19"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="26"/>
-    </row>
-    <row r="97" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="19"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="26"/>
-    </row>
-    <row r="98" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="19"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="26"/>
-    </row>
-    <row r="99" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="26"/>
-    </row>
-    <row r="100" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="19"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="26"/>
-    </row>
-    <row r="101" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="19"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="26"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="30"/>
+      <c r="F55" s="30"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="30"/>
+      <c r="B56" s="37"/>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="30"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="30"/>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="30"/>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="30"/>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="30"/>
+      <c r="F61" s="30"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="30"/>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="30"/>
+      <c r="F63" s="30"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="30"/>
+      <c r="F64" s="30"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="30"/>
+      <c r="F65" s="30"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="30"/>
+      <c r="F66" s="30"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="30"/>
+      <c r="F67" s="30"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="30"/>
+      <c r="F68" s="30"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="30"/>
+      <c r="F69" s="30"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="30"/>
+      <c r="F70" s="30"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="30"/>
+      <c r="F71" s="30"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="30"/>
+      <c r="B72" s="37"/>
+      <c r="F72" s="30"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="30"/>
+      <c r="F73" s="30"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="30"/>
+      <c r="F74" s="30"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="30"/>
+      <c r="F75" s="30"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="30"/>
+      <c r="F76" s="30"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="30"/>
+      <c r="F77" s="30"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="30"/>
+      <c r="F78" s="30"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="30"/>
+      <c r="F79" s="30"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="30"/>
+      <c r="F80" s="30"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="30"/>
+      <c r="F81" s="30"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="30"/>
+      <c r="F82" s="30"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="30"/>
+      <c r="F83" s="30"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="30"/>
+      <c r="F84" s="30"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="30"/>
+      <c r="F85" s="30"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="30"/>
+      <c r="F86" s="30"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="30"/>
+      <c r="F87" s="30"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="30"/>
+      <c r="B88" s="37"/>
+      <c r="F88" s="30"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="30"/>
+      <c r="F89" s="30"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="30"/>
+      <c r="F90" s="30"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="30"/>
+      <c r="F91" s="30"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="30"/>
+      <c r="F92" s="30"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="30"/>
+      <c r="F93" s="30"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="30"/>
+      <c r="F94" s="30"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="30"/>
+      <c r="F95" s="30"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="30"/>
+      <c r="F96" s="30"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="30"/>
+      <c r="F97" s="30"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="30"/>
+      <c r="F98" s="30"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="30"/>
+      <c r="F99" s="30"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="30"/>
+      <c r="F100" s="30"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="30"/>
+      <c r="F101" s="30"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="30"/>
+      <c r="F102" s="30"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="30"/>
+      <c r="F103" s="30"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="30"/>
+      <c r="F104" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A48:G48"/>
+  <mergeCells count="13">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A37:G37"/>
     <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A41:G41"/>
   </mergeCells>
   <conditionalFormatting sqref="F28">
     <cfRule type="containsText" dxfId="158" priority="186" operator="containsText" text="Blocked">
@@ -4439,199 +4377,199 @@
       <formula>NOT(ISERROR(SEARCH("Passed",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52:F57">
+  <conditionalFormatting sqref="F55:F60">
     <cfRule type="containsText" dxfId="152" priority="171" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52:F57">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:F60">
     <cfRule type="containsText" dxfId="151" priority="169" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="150" priority="170" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+      <formula>NOT(ISERROR(SEARCH("Passed",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
     <cfRule type="containsText" dxfId="149" priority="168" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
     <cfRule type="containsText" dxfId="148" priority="166" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F61)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="147" priority="167" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+      <formula>NOT(ISERROR(SEARCH("Passed",F61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
     <cfRule type="containsText" dxfId="146" priority="165" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
     <cfRule type="containsText" dxfId="145" priority="163" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F62)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="144" priority="164" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
+      <formula>NOT(ISERROR(SEARCH("Passed",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
     <cfRule type="containsText" dxfId="143" priority="162" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
     <cfRule type="containsText" dxfId="142" priority="160" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F60)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="141" priority="161" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F60)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61:F67">
+      <formula>NOT(ISERROR(SEARCH("Passed",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64:F70">
     <cfRule type="containsText" dxfId="140" priority="159" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61:F67">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64:F70">
     <cfRule type="containsText" dxfId="139" priority="157" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F61)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F64)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="138" priority="158" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F61)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68:F73">
+      <formula>NOT(ISERROR(SEARCH("Passed",F64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:F76">
     <cfRule type="containsText" dxfId="137" priority="144" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68:F73">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:F76">
     <cfRule type="containsText" dxfId="136" priority="142" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F68)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F71)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="135" priority="143" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
+      <formula>NOT(ISERROR(SEARCH("Passed",F71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77">
     <cfRule type="containsText" dxfId="134" priority="141" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77">
     <cfRule type="containsText" dxfId="133" priority="139" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F77)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="132" priority="140" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
+      <formula>NOT(ISERROR(SEARCH("Passed",F77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
     <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
     <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F75)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F78)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="129" priority="137" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
+      <formula>NOT(ISERROR(SEARCH("Passed",F78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
     <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
     <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F79)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="126" priority="134" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77:F83">
+      <formula>NOT(ISERROR(SEARCH("Passed",F79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80:F86">
     <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77:F83">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80:F86">
     <cfRule type="containsText" dxfId="124" priority="130" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F80)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="123" priority="131" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84:F91">
+      <formula>NOT(ISERROR(SEARCH("Passed",F80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:F94">
     <cfRule type="containsText" dxfId="122" priority="129" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84:F91">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:F94">
     <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F84)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F87)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="120" priority="128" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
+      <formula>NOT(ISERROR(SEARCH("Passed",F87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
     <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F95)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
     <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F92)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F95)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="117" priority="125" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
+      <formula>NOT(ISERROR(SEARCH("Passed",F95)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
     <cfRule type="containsText" dxfId="116" priority="123" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F93)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
     <cfRule type="containsText" dxfId="115" priority="121" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F93)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F96)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="114" priority="122" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F93)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
+      <formula>NOT(ISERROR(SEARCH("Passed",F96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
     <cfRule type="containsText" dxfId="113" priority="120" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F97)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
     <cfRule type="containsText" dxfId="112" priority="118" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F94)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F97)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="111" priority="119" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95:F101">
+      <formula>NOT(ISERROR(SEARCH("Passed",F97)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:F104">
     <cfRule type="containsText" dxfId="110" priority="117" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F95)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95:F101">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F98)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:F104">
     <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F98)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="108" priority="116" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
@@ -4946,56 +4884,56 @@
       <formula>NOT(ISERROR(SEARCH("Passed",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F38">
     <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
     <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+      <formula>NOT(ISERROR(SEARCH("Passed",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
     <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
     <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F39)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+      <formula>NOT(ISERROR(SEARCH("Passed",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
     <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
     <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+      <formula>NOT(ISERROR(SEARCH("Passed",F40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
     <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
     <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
@@ -5011,99 +4949,99 @@
       <formula>NOT(ISERROR(SEARCH("Passed",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F46">
     <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
     <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+      <formula>NOT(ISERROR(SEARCH("Passed",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
     <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
     <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+      <formula>NOT(ISERROR(SEARCH("Passed",F47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
     <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
     <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+      <formula>NOT(ISERROR(SEARCH("Passed",F48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
     <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
     <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",F52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F49)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Blocked">
+      <formula>NOT(ISERROR(SEARCH("Blocked",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Blocked">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Blocked">
       <formula>NOT(ISERROR(SEARCH("Blocked",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",F50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Blocked">
-      <formula>NOT(ISERROR(SEARCH("Blocked",F47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",F47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",F47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F9 F49:F101 F24:F26 F11:F14 F16:F17 F19:F22 F28:F30 F32:F33 F35:F39 F41:F45 F47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F9 F52:F104 F24:F26 F11:F14 F16:F17 F19:F22 F28:F30 F32:F33 F50 F38:F40 F35:F36 F42 F44 F46:F48">
       <formula1>"Passed, Failed, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
